--- a/.ipynb_checkpoints/.ipynb_checkpoints/evaluare_full.xlsx
+++ b/.ipynb_checkpoints/.ipynb_checkpoints/evaluare_full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csabi\Pictures\SD\Scikit-Learn-Project\.ipynb_checkpoints\.ipynb_checkpoints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csabi\Videos\Scikit-Learn-Project\.ipynb_checkpoints\.ipynb_checkpoints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="775">
   <si>
     <t>SZABO E. CSILLA REKA</t>
   </si>
@@ -2237,13 +2237,127 @@
   </si>
   <si>
     <t>RUNCAN I. ADINA IOANA</t>
+  </si>
+  <si>
+    <t>BOLOGA C. ANDRADA CRINA</t>
+  </si>
+  <si>
+    <t>SCOALA GIMNAZIALA "M.EMINESCU" ZALAU</t>
+  </si>
+  <si>
+    <t>Germana</t>
+  </si>
+  <si>
+    <t>POP M. ALEXANDRA ROXANA</t>
+  </si>
+  <si>
+    <t>POP F. TUDOR</t>
+  </si>
+  <si>
+    <t>SCOALA GIMNAZIALA "SIMION BARNUTIU" ZALAU</t>
+  </si>
+  <si>
+    <t>CHIS T. MADALINA MARCELA</t>
+  </si>
+  <si>
+    <t>SCOALA GIMNAZIALA PECEIU</t>
+  </si>
+  <si>
+    <t>ARDELEAN I. IOANA MIRELA</t>
+  </si>
+  <si>
+    <t>ZMOLE I. RAUL IONUT</t>
+  </si>
+  <si>
+    <t>SCOALA GIMNAZIALA "CORNELIU COPOSU" ZALAU</t>
+  </si>
+  <si>
+    <t>MARINCEAN D. ANDRA PAULA</t>
+  </si>
+  <si>
+    <t>ARDELEAN V. ALEXANDRA OCTAVIA</t>
+  </si>
+  <si>
+    <t>SABAU P. ANDREI</t>
+  </si>
+  <si>
+    <t>DUMITRAS L. CATALIN PAUL</t>
+  </si>
+  <si>
+    <t>BOGDAN I. RAZVAN ANDREI</t>
+  </si>
+  <si>
+    <t>PACURAR D. MEDA</t>
+  </si>
+  <si>
+    <t>SCOALA GIMNAZIALA "GH.LAZAR" ZALAU</t>
+  </si>
+  <si>
+    <t>OROS O. MARIA ANDRADA</t>
+  </si>
+  <si>
+    <t>POP L. SERGIU FLORIN</t>
+  </si>
+  <si>
+    <t>LICEUL SPORTIV "AVRAM IANCU" ZALAU</t>
+  </si>
+  <si>
+    <t>POP D. DAN VALERIAN</t>
+  </si>
+  <si>
+    <t>PAPITA D. RAZVAN VASILE</t>
+  </si>
+  <si>
+    <t>HERCUT M. ALINA</t>
+  </si>
+  <si>
+    <t>MAN IVASCAU A. PETRISOR</t>
+  </si>
+  <si>
+    <t>TIMARIU T. IULIU MARIUS</t>
+  </si>
+  <si>
+    <t>POP C. CRISTIAN VASILE</t>
+  </si>
+  <si>
+    <t>CHIS D. ANDREI MIHAI</t>
+  </si>
+  <si>
+    <t>LUCA I. ALIN IONUT</t>
+  </si>
+  <si>
+    <t>SUCIU I. ANDREI ALEXANDRU</t>
+  </si>
+  <si>
+    <t>BREBAN I. IOANA GEORGIANA</t>
+  </si>
+  <si>
+    <t>ANTAL L. CIPRIAN ADRIAN</t>
+  </si>
+  <si>
+    <t>MURESAN G. LAURIAN ADRIAN</t>
+  </si>
+  <si>
+    <t>SANDOR V. RAFAEL DACIAN</t>
+  </si>
+  <si>
+    <t>UNGUR C. CRISTINA MARIA</t>
+  </si>
+  <si>
+    <t>BORDEIANU S. PAUL</t>
+  </si>
+  <si>
+    <t>GORGAN M. SERBAN IONUT</t>
+  </si>
+  <si>
+    <t>SCOALA GIMNAZIALA MAERISTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2386,8 +2500,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2567,8 +2687,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2683,6 +2815,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2729,7 +2881,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2742,6 +2894,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2817,7 +3014,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5007,10 +5203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M586"/>
+  <dimension ref="A1:M616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A559" sqref="A559:M586"/>
+    <sheetView tabSelected="1" topLeftCell="A583" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G591" sqref="G591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28910,7 +29106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4">
         <v>28</v>
       </c>
@@ -28948,6 +29144,1236 @@
         <v>56</v>
       </c>
       <c r="M586" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="15">
+        <v>1</v>
+      </c>
+      <c r="B587" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C587" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D587" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="E587" s="19">
+        <v>9.91</v>
+      </c>
+      <c r="F587" s="19">
+        <v>9.83</v>
+      </c>
+      <c r="G587" s="19">
+        <v>10</v>
+      </c>
+      <c r="H587" s="19">
+        <v>9.65</v>
+      </c>
+      <c r="I587" s="19">
+        <v>10</v>
+      </c>
+      <c r="J587" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K587" s="19">
+        <v>10</v>
+      </c>
+      <c r="L587" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="M587" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="10">
+        <v>2</v>
+      </c>
+      <c r="B588" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C588" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D588" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="E588" s="14">
+        <v>9.85</v>
+      </c>
+      <c r="F588" s="14">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G588" s="14">
+        <v>10</v>
+      </c>
+      <c r="H588" s="14">
+        <v>9.4</v>
+      </c>
+      <c r="I588" s="14">
+        <v>9.75</v>
+      </c>
+      <c r="J588" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K588" s="14">
+        <v>10</v>
+      </c>
+      <c r="L588" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M588" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="5">
+        <v>3</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D589" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E589" s="9">
+        <v>9.85</v>
+      </c>
+      <c r="F589" s="9">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G589" s="9">
+        <v>10</v>
+      </c>
+      <c r="H589" s="9">
+        <v>9.35</v>
+      </c>
+      <c r="I589" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J589" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K589" s="9">
+        <v>10</v>
+      </c>
+      <c r="L589" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M589" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="10">
+        <v>4</v>
+      </c>
+      <c r="B590" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="C590" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D590" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="E590" s="14">
+        <v>9.81</v>
+      </c>
+      <c r="F590" s="14">
+        <v>9.65</v>
+      </c>
+      <c r="G590" s="14">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H590" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="I590" s="14">
+        <v>10</v>
+      </c>
+      <c r="J590" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K590" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L590" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M590" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="5">
+        <v>5</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D591" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E591" s="9">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F591" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="G591" s="9">
+        <v>9.99</v>
+      </c>
+      <c r="H591" s="9">
+        <v>9</v>
+      </c>
+      <c r="I591" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J591" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K591" s="9">
+        <v>10</v>
+      </c>
+      <c r="L591" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M591" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="10">
+        <v>6</v>
+      </c>
+      <c r="B592" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C592" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D592" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="E592" s="14">
+        <v>9.77</v>
+      </c>
+      <c r="F592" s="14">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G592" s="14">
+        <v>10</v>
+      </c>
+      <c r="H592" s="14">
+        <v>9.35</v>
+      </c>
+      <c r="I592" s="14">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="J592" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K592" s="14">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L592" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M592" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="5">
+        <v>7</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D593" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E593" s="9">
+        <v>9.74</v>
+      </c>
+      <c r="F593" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="G593" s="9">
+        <v>9.98</v>
+      </c>
+      <c r="H593" s="9">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="I593" s="9">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J593" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K593" s="9">
+        <v>10</v>
+      </c>
+      <c r="L593" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M593" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="10">
+        <v>8</v>
+      </c>
+      <c r="B594" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C594" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D594" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="E594" s="14">
+        <v>9.73</v>
+      </c>
+      <c r="F594" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="G594" s="14">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H594" s="14">
+        <v>9.27</v>
+      </c>
+      <c r="I594" s="14">
+        <v>9.25</v>
+      </c>
+      <c r="J594" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K594" s="14">
+        <v>10</v>
+      </c>
+      <c r="L594" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M594" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="5">
+        <v>9</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D595" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="E595" s="9">
+        <v>9.73</v>
+      </c>
+      <c r="F595" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="G595" s="9">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H595" s="9">
+        <v>9.02</v>
+      </c>
+      <c r="I595" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="J595" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K595" s="9">
+        <v>10</v>
+      </c>
+      <c r="L595" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M595" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="10">
+        <v>10</v>
+      </c>
+      <c r="B596" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="C596" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D596" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="E596" s="14">
+        <v>9.73</v>
+      </c>
+      <c r="F596" s="14">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="G596" s="14">
+        <v>10</v>
+      </c>
+      <c r="H596" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="I596" s="14">
+        <v>9.65</v>
+      </c>
+      <c r="J596" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K596" s="14">
+        <v>9.65</v>
+      </c>
+      <c r="L596" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M596" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="5">
+        <v>11</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D597" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E597" s="9">
+        <v>9.69</v>
+      </c>
+      <c r="F597" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="G597" s="9">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="H597" s="9">
+        <v>8.65</v>
+      </c>
+      <c r="I597" s="9">
+        <v>9.85</v>
+      </c>
+      <c r="J597" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K597" s="9">
+        <v>10</v>
+      </c>
+      <c r="L597" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M597" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="10">
+        <v>12</v>
+      </c>
+      <c r="B598" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="C598" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D598" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E598" s="14">
+        <v>9.68</v>
+      </c>
+      <c r="F598" s="14">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G598" s="14">
+        <v>9.91</v>
+      </c>
+      <c r="H598" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="I598" s="14">
+        <v>8.85</v>
+      </c>
+      <c r="J598" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K598" s="14">
+        <v>10</v>
+      </c>
+      <c r="L598" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M598" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="5">
+        <v>13</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D599" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E599" s="9">
+        <v>9.68</v>
+      </c>
+      <c r="F599" s="9">
+        <v>9.41</v>
+      </c>
+      <c r="G599" s="9">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H599" s="9">
+        <v>9.35</v>
+      </c>
+      <c r="I599" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="J599" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K599" s="9">
+        <v>10</v>
+      </c>
+      <c r="L599" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M599" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="10">
+        <v>14</v>
+      </c>
+      <c r="B600" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C600" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D600" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="E600" s="14">
+        <v>9.66</v>
+      </c>
+      <c r="F600" s="14">
+        <v>9.39</v>
+      </c>
+      <c r="G600" s="14">
+        <v>9.94</v>
+      </c>
+      <c r="H600" s="14">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I600" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="J600" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K600" s="14">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L600" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M600" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="5">
+        <v>15</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D601" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E601" s="9">
+        <v>9.64</v>
+      </c>
+      <c r="F601" s="9">
+        <v>9.39</v>
+      </c>
+      <c r="G601" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H601" s="9">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I601" s="9">
+        <v>9.77</v>
+      </c>
+      <c r="J601" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K601" s="9">
+        <v>9.85</v>
+      </c>
+      <c r="L601" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M601" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="10">
+        <v>16</v>
+      </c>
+      <c r="B602" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C602" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D602" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E602" s="14">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="F602" s="14">
+        <v>9.51</v>
+      </c>
+      <c r="G602" s="14">
+        <v>9.73</v>
+      </c>
+      <c r="H602" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I602" s="14">
+        <v>9.75</v>
+      </c>
+      <c r="J602" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K602" s="14">
+        <v>10</v>
+      </c>
+      <c r="L602" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M602" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="5">
+        <v>17</v>
+      </c>
+      <c r="B603" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D603" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E603" s="9">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="F603" s="9">
+        <v>9.42</v>
+      </c>
+      <c r="G603" s="9">
+        <v>9.83</v>
+      </c>
+      <c r="H603" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I603" s="9">
+        <v>8.77</v>
+      </c>
+      <c r="J603" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K603" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L603" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M603" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="10">
+        <v>18</v>
+      </c>
+      <c r="B604" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C604" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D604" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="E604" s="14">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="F604" s="14">
+        <v>9.33</v>
+      </c>
+      <c r="G604" s="14">
+        <v>9.91</v>
+      </c>
+      <c r="H604" s="14">
+        <v>9</v>
+      </c>
+      <c r="I604" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="J604" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K604" s="14">
+        <v>9.85</v>
+      </c>
+      <c r="L604" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M604" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="5">
+        <v>19</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D605" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E605" s="9">
+        <v>9.61</v>
+      </c>
+      <c r="F605" s="9">
+        <v>9.58</v>
+      </c>
+      <c r="G605" s="9">
+        <v>9.64</v>
+      </c>
+      <c r="H605" s="9">
+        <v>9.35</v>
+      </c>
+      <c r="I605" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="J605" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K605" s="9">
+        <v>10</v>
+      </c>
+      <c r="L605" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M605" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="10">
+        <v>20</v>
+      </c>
+      <c r="B606" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C606" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D606" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E606" s="14">
+        <v>9.61</v>
+      </c>
+      <c r="F606" s="14">
+        <v>9.58</v>
+      </c>
+      <c r="G606" s="14">
+        <v>9.64</v>
+      </c>
+      <c r="H606" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="I606" s="14">
+        <v>9.65</v>
+      </c>
+      <c r="J606" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K606" s="14">
+        <v>10</v>
+      </c>
+      <c r="L606" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M606" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="5">
+        <v>21</v>
+      </c>
+      <c r="B607" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C607" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D607" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E607" s="9">
+        <v>9.61</v>
+      </c>
+      <c r="F607" s="9">
+        <v>9.32</v>
+      </c>
+      <c r="G607" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H607" s="9">
+        <v>9.17</v>
+      </c>
+      <c r="I607" s="9">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="J607" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K607" s="9">
+        <v>9.85</v>
+      </c>
+      <c r="L607" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M607" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="10">
+        <v>22</v>
+      </c>
+      <c r="B608" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C608" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D608" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E608" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="F608" s="14">
+        <v>9.51</v>
+      </c>
+      <c r="G608" s="14">
+        <v>9.69</v>
+      </c>
+      <c r="H608" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="I608" s="14">
+        <v>9.75</v>
+      </c>
+      <c r="J608" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K608" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="L608" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M608" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="5">
+        <v>23</v>
+      </c>
+      <c r="B609" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C609" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D609" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E609" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="F609" s="9">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="G609" s="9">
+        <v>9.92</v>
+      </c>
+      <c r="H609" s="9">
+        <v>7.85</v>
+      </c>
+      <c r="I609" s="9">
+        <v>10</v>
+      </c>
+      <c r="J609" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K609" s="9">
+        <v>10</v>
+      </c>
+      <c r="L609" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M609" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="10">
+        <v>24</v>
+      </c>
+      <c r="B610" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C610" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D610" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="E610" s="14">
+        <v>9.59</v>
+      </c>
+      <c r="F610" s="14">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G610" s="14">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H610" s="14">
+        <v>9</v>
+      </c>
+      <c r="I610" s="14">
+        <v>8.82</v>
+      </c>
+      <c r="J610" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K610" s="14">
+        <v>9.85</v>
+      </c>
+      <c r="L610" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M610" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="5">
+        <v>25</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C611" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D611" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="E611" s="9">
+        <v>9.58</v>
+      </c>
+      <c r="F611" s="9">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G611" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H611" s="9">
+        <v>9.27</v>
+      </c>
+      <c r="I611" s="9">
+        <v>8.85</v>
+      </c>
+      <c r="J611" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K611" s="9">
+        <v>10</v>
+      </c>
+      <c r="L611" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M611" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="10">
+        <v>26</v>
+      </c>
+      <c r="B612" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C612" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D612" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="E612" s="14">
+        <v>9.58</v>
+      </c>
+      <c r="F612" s="14">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="G612" s="14">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="H612" s="14">
+        <v>8.75</v>
+      </c>
+      <c r="I612" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="J612" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K612" s="14">
+        <v>10</v>
+      </c>
+      <c r="L612" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M612" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="5">
+        <v>27</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C613" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D613" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E613" s="9">
+        <v>9.57</v>
+      </c>
+      <c r="F613" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="G613" s="9">
+        <v>9.75</v>
+      </c>
+      <c r="H613" s="9">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="I613" s="9">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="J613" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K613" s="9">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L613" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M613" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="10">
+        <v>28</v>
+      </c>
+      <c r="B614" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="C614" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D614" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E614" s="14">
+        <v>9.57</v>
+      </c>
+      <c r="F614" s="14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G614" s="14">
+        <v>9.84</v>
+      </c>
+      <c r="H614" s="14">
+        <v>8.65</v>
+      </c>
+      <c r="I614" s="14">
+        <v>9.25</v>
+      </c>
+      <c r="J614" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K614" s="14">
+        <v>10</v>
+      </c>
+      <c r="L614" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M614" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="5">
+        <v>29</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C615" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D615" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E615" s="9">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F615" s="9">
+        <v>9.25</v>
+      </c>
+      <c r="G615" s="9">
+        <v>9.85</v>
+      </c>
+      <c r="H615" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="I615" s="9">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="J615" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K615" s="9">
+        <v>10</v>
+      </c>
+      <c r="L615" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M615" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="10">
+        <v>30</v>
+      </c>
+      <c r="B616" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C616" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D616" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E616" s="14">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F616" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="G616" s="14">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H616" s="14">
+        <v>8.92</v>
+      </c>
+      <c r="I616" s="14">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="J616" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K616" s="14">
+        <v>9.65</v>
+      </c>
+      <c r="L616" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M616" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -30063,6 +31489,66 @@
     <hyperlink ref="D585" r:id="rId1108" display="http://web.archive.org/web/20081003105031/http:/admitere.edu.ro/2008/staticRepI/j/CJ/sc/a/189/"/>
     <hyperlink ref="C586" r:id="rId1109" display="http://web.archive.org/web/20081003105031/http:/admitere.edu.ro/2008/staticRepI/j/CJ/aout/"/>
     <hyperlink ref="D586" r:id="rId1110" display="http://web.archive.org/web/20081003105031/http:/admitere.edu.ro/2008/staticRepI/j/CJ/sc/a/163/"/>
+    <hyperlink ref="C587" r:id="rId1111" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D587" r:id="rId1112" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C588" r:id="rId1113" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D588" r:id="rId1114" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C589" r:id="rId1115" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D589" r:id="rId1116" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/111/"/>
+    <hyperlink ref="C590" r:id="rId1117" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D590" r:id="rId1118" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/135/"/>
+    <hyperlink ref="C591" r:id="rId1119" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D591" r:id="rId1120" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C592" r:id="rId1121" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D592" r:id="rId1122" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/105/"/>
+    <hyperlink ref="C593" r:id="rId1123" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D593" r:id="rId1124" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C594" r:id="rId1125" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D594" r:id="rId1126" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C595" r:id="rId1127" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D595" r:id="rId1128" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/105/"/>
+    <hyperlink ref="C596" r:id="rId1129" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D596" r:id="rId1130" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/111/"/>
+    <hyperlink ref="C597" r:id="rId1131" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D597" r:id="rId1132" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C598" r:id="rId1133" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D598" r:id="rId1134" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C599" r:id="rId1135" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D599" r:id="rId1136" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C600" r:id="rId1137" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D600" r:id="rId1138" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/103/"/>
+    <hyperlink ref="C601" r:id="rId1139" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D601" r:id="rId1140" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C602" r:id="rId1141" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D602" r:id="rId1142" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C603" r:id="rId1143" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D603" r:id="rId1144" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C604" r:id="rId1145" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D604" r:id="rId1146" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C605" r:id="rId1147" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D605" r:id="rId1148" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C606" r:id="rId1149" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D606" r:id="rId1150" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C607" r:id="rId1151" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D607" r:id="rId1152" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/111/"/>
+    <hyperlink ref="C608" r:id="rId1153" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D608" r:id="rId1154" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C609" r:id="rId1155" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D609" r:id="rId1156" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/109/"/>
+    <hyperlink ref="C610" r:id="rId1157" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D610" r:id="rId1158" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/103/"/>
+    <hyperlink ref="C611" r:id="rId1159" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D611" r:id="rId1160" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/103/"/>
+    <hyperlink ref="C612" r:id="rId1161" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D612" r:id="rId1162" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/105/"/>
+    <hyperlink ref="C613" r:id="rId1163" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D613" r:id="rId1164" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C614" r:id="rId1165" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D614" r:id="rId1166" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C615" r:id="rId1167" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D615" r:id="rId1168" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/107/"/>
+    <hyperlink ref="C616" r:id="rId1169" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/aout/"/>
+    <hyperlink ref="D616" r:id="rId1170" display="https://web.archive.org/web/20080706192618/http:/admitere.edu.ro/2008/staticRepI/j/SJ/sc/a/176/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
